--- a/SQL Excel/easy_sql.xlsx
+++ b/SQL Excel/easy_sql.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emanuele.iaccarino\Downloads\Json_Pipeline_associare_tabelle_Source_Destination\SQL Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DC881CA-36BA-4E29-90E6-354DDA260C82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -73,8 +79,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -137,13 +143,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -181,7 +195,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -215,6 +229,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -249,9 +264,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -424,14 +440,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="66.36328125" customWidth="1"/>
+    <col min="2" max="2" width="33.08984375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -439,7 +461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -447,7 +469,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -455,7 +477,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -463,7 +485,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -471,7 +493,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -479,7 +501,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -487,7 +509,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -495,7 +517,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -503,7 +525,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>9</v>
       </c>

--- a/SQL Excel/easy_sql.xlsx
+++ b/SQL Excel/easy_sql.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emanuele.iaccarino\Downloads\Json_Pipeline_associare_tabelle_Source_Destination\SQL Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DC881CA-36BA-4E29-90E6-354DDA260C82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFA69A76-C4C3-419C-ADFC-BA434758F348}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,28 +28,28 @@
     <t>target_column</t>
   </si>
   <si>
-    <t>#TMS_CARICAMENTO#.</t>
-  </si>
-  <si>
-    <t>#COD_SIST_ALIMNTNT#.</t>
-  </si>
-  <si>
-    <t>#$BQ_PROJID_T4777A#.#$BQ_DSNAME_T4777A#.VD_T4_DB_PSET.NOM_PSET</t>
-  </si>
-  <si>
-    <t>#$BQ_PROJID_T4777A#.#$BQ_DSNAME_T4777A#.VD_T4_DB_PSET.COD_PSET</t>
-  </si>
-  <si>
-    <t>COD_KEY_PIAZZA_REGOLAMENTO</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> NUM_AA_TT</t>
-  </si>
-  <si>
-    <t>#COD_SIST_ALIMNTNT#</t>
-  </si>
-  <si>
-    <t>#COD_SSA_PROVNNZ#</t>
+    <t>202004142359.</t>
+  </si>
+  <si>
+    <t>TOP.</t>
+  </si>
+  <si>
+    <t>prj-isp-t4777-appl-svil-001.T4777W.VD_T4_DB_PSET.NOM_PSET</t>
+  </si>
+  <si>
+    <t>prj-isp-t4777-appl-svil-001.T4777W.VD_T4_DB_PSET.COD_PSET</t>
+  </si>
+  <si>
+    <t>NUM_AA_TT</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> COD_KEY_PIAZZA_REGOLAMENTO</t>
+  </si>
+  <si>
+    <t>TOP</t>
+  </si>
+  <si>
+    <t>T4</t>
   </si>
   <si>
     <t>num_aa_tt</t>
@@ -449,8 +449,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="66.36328125" customWidth="1"/>
-    <col min="2" max="2" width="33.08984375" customWidth="1"/>
+    <col min="1" max="1" width="55.7265625" customWidth="1"/>
+    <col min="2" max="2" width="30.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
